--- a/output/Standardized Job Titles and SOC Codes_6.xlsx
+++ b/output/Standardized Job Titles and SOC Codes_6.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>SOC Code</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SOC Code</t>
+          <t>Match Score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -523,13 +523,13 @@
           <t>Digital Court Reporter</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>27-3092.00</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>27-3092.00</t>
-        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -570,13 +570,13 @@
           <t>Legal Administrator</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>23-2099.00</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23-2099.00</t>
-        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,13 +617,13 @@
           <t>Legal Clerk</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>23-1012.00</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>23-1012.00</t>
-        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
